--- a/RoadMap.xlsx
+++ b/RoadMap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mansitos_Picci\Desktop\VideoGameProgramming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB388D5-36F2-4940-94AF-8051839D8E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED37B9AA-031F-4A43-9491-0ED99E790802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6930" yWindow="5565" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="110">
   <si>
     <t>Version:</t>
   </si>
@@ -282,9 +282,6 @@
     <t>Stealing UI</t>
   </si>
   <si>
-    <t>Triggers optimizations</t>
-  </si>
-  <si>
     <t>User Testing</t>
   </si>
   <si>
@@ -309,9 +306,6 @@
     <t>Spotted on ai collision</t>
   </si>
   <si>
-    <t>listed user testing bugs</t>
-  </si>
-  <si>
     <t>Grass and stuff animation (level feels static)</t>
   </si>
   <si>
@@ -324,26 +318,50 @@
     <t>IMPROVED</t>
   </si>
   <si>
-    <t>DISCARDED</t>
-  </si>
-  <si>
     <t>User 1: v0.4.0 (Daniele - Master degree IT student, plays a lot of videogames)</t>
   </si>
   <si>
     <t>User 2: v0.4.1 (after user 1 tweaks) (Stefano - Mechanical designer, plays video games occasionally)</t>
   </si>
   <si>
-    <t>User 3: v0.4.1 (after user 1 tweaks) (Simone - Mechanical engineer studer, plays a strategy games)</t>
-  </si>
-  <si>
-    <t>User 4: v0.4.1 (after user 1 tweaks) (Federico - Bachelor's degr. student in IT UNIUD, plays some videogames)</t>
+    <t>BUG: too easy to glitch outside map borders</t>
+  </si>
+  <si>
+    <t>Guards are too fast</t>
+  </si>
+  <si>
+    <t>User 3: v0.4.1 (after user 1 tweaks) (Federico - Bachelor's degr. student in IT UNIUD, plays some videogames)</t>
+  </si>
+  <si>
+    <t>Wants a minimap (or at least he wants to see the map at the beginning of the level)</t>
+  </si>
+  <si>
+    <t>BUG: He has a 21:9 monitor, main menu is broken</t>
+  </si>
+  <si>
+    <t>He wants sounds clue when guards spot you. He also wants more sounds in general</t>
+  </si>
+  <si>
+    <t>He thinks there should be more covers in some map areas</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>Player glitch inside objects very easily. The cause is the player movement system. It acts on chaning player absolute transform.position. Player is not moved by phyisics, but every update() call it teleports, so it goes inside or over objects. The fix is in reworking the movement system!</t>
+  </si>
+  <si>
+    <t>LOL:</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1HKQBnlvnaQ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -399,6 +417,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -427,7 +452,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -714,7 +739,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -761,7 +786,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -773,6 +797,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -793,6 +818,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1074,10 +1102,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV111"/>
+  <dimension ref="A1:AV104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1124,7 +1152,7 @@
     <col min="40" max="40" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:48" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27"/>
       <c r="B1" s="27"/>
       <c r="C1" s="50" t="s">
@@ -1293,7 +1321,7 @@
         <v>68</v>
       </c>
       <c r="AB3" s="19"/>
-      <c r="AC3" s="20" t="s">
+      <c r="AC3" s="31" t="s">
         <v>69</v>
       </c>
       <c r="AD3" s="27"/>
@@ -1398,7 +1426,9 @@
       <c r="AA4" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="AB4" s="8"/>
+      <c r="AB4" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="AC4" s="11" t="s">
         <v>75</v>
       </c>
@@ -1505,9 +1535,7 @@
         <v>56</v>
       </c>
       <c r="AB5" s="8"/>
-      <c r="AC5" s="11" t="s">
-        <v>85</v>
-      </c>
+      <c r="AC5" s="13"/>
       <c r="AD5" s="27"/>
       <c r="AE5" s="12"/>
       <c r="AF5" s="1" t="s">
@@ -1730,7 +1758,7 @@
         <v>6</v>
       </c>
       <c r="AA8" s="23" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AB8" s="8"/>
       <c r="AC8" s="13"/>
@@ -1834,8 +1862,8 @@
       <c r="W10" s="16"/>
       <c r="X10" s="14"/>
       <c r="Y10" s="15"/>
-      <c r="Z10" s="46"/>
-      <c r="AA10" s="46"/>
+      <c r="Z10" s="45"/>
+      <c r="AA10" s="45"/>
       <c r="AB10" s="15"/>
       <c r="AC10" s="16"/>
       <c r="AD10" s="27"/>
@@ -1910,28 +1938,28 @@
       <c r="AU11" s="27"/>
       <c r="AV11" s="27"/>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="27"/>
-      <c r="C12" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="28" t="s">
+      <c r="C12" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="H12" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="28" t="s">
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
       <c r="L12" s="27"/>
       <c r="M12" s="27"/>
       <c r="N12" s="27"/>
@@ -1970,17 +1998,17 @@
       <c r="AU12" s="27"/>
       <c r="AV12" s="27"/>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="27"/>
       <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27" t="s">
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
       <c r="I13" s="27"/>
       <c r="J13" s="27"/>
       <c r="K13" s="27"/>
@@ -2025,14 +2053,14 @@
     <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
       <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27" t="s">
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
       <c r="I14" s="27"/>
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
@@ -2077,14 +2105,14 @@
     <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
       <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27" t="s">
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
       <c r="I15" s="27"/>
       <c r="J15" s="27"/>
       <c r="K15" s="27"/>
@@ -2129,14 +2157,14 @@
     <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
       <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27" t="s">
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
       <c r="I16" s="27"/>
       <c r="J16" s="27"/>
       <c r="K16" s="27"/>
@@ -2181,14 +2209,14 @@
     <row r="17" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
       <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27" t="s">
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
       <c r="I17" s="27"/>
       <c r="J17" s="27"/>
       <c r="K17" s="27"/>
@@ -2236,11 +2264,11 @@
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
-      <c r="F18" s="27" t="s">
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
       <c r="I18" s="27"/>
       <c r="J18" s="27"/>
       <c r="K18" s="27"/>
@@ -2288,11 +2316,11 @@
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
-      <c r="F19" s="29" t="s">
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
       <c r="I19" s="27"/>
       <c r="J19" s="27"/>
       <c r="K19" s="27"/>
@@ -2340,11 +2368,11 @@
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
-      <c r="F20" s="27" t="s">
-        <v>93</v>
-      </c>
+      <c r="F20" s="27"/>
       <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
+      <c r="H20" s="27" t="s">
+        <v>92</v>
+      </c>
       <c r="I20" s="27"/>
       <c r="J20" s="27"/>
       <c r="K20" s="27"/>
@@ -2392,11 +2420,10 @@
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
-      <c r="F21" s="27" t="s">
-        <v>95</v>
-      </c>
       <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
+      <c r="H21" s="27" t="s">
+        <v>93</v>
+      </c>
       <c r="I21" s="27"/>
       <c r="J21" s="27"/>
       <c r="K21" s="27"/>
@@ -2441,8 +2468,8 @@
     <row r="22" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="27"/>
       <c r="B22" s="27"/>
-      <c r="C22" s="42" t="s">
-        <v>86</v>
+      <c r="C22" s="49" t="s">
+        <v>85</v>
       </c>
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
@@ -2491,15 +2518,15 @@
       <c r="AV22" s="27"/>
     </row>
     <row r="23" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="43"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="49"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="48"/>
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
       <c r="J23" s="27"/>
@@ -2543,12 +2570,12 @@
       <c r="AV23" s="27"/>
     </row>
     <row r="24" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="43"/>
-      <c r="B24" s="44" t="s">
-        <v>97</v>
+      <c r="A24" s="42"/>
+      <c r="B24" s="43" t="s">
+        <v>95</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D24" s="29"/>
       <c r="E24" s="29"/>
@@ -2597,12 +2624,12 @@
       <c r="AV24" s="27"/>
     </row>
     <row r="25" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="43"/>
-      <c r="B25" s="45" t="s">
-        <v>99</v>
+      <c r="A25" s="42"/>
+      <c r="B25" s="44" t="s">
+        <v>106</v>
       </c>
       <c r="C25" s="39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D25" s="40"/>
       <c r="E25" s="40"/>
@@ -2651,12 +2678,12 @@
       <c r="AV25" s="27"/>
     </row>
     <row r="26" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="43"/>
-      <c r="B26" s="44" t="s">
-        <v>98</v>
+      <c r="A26" s="42"/>
+      <c r="B26" s="43" t="s">
+        <v>96</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
@@ -2705,12 +2732,12 @@
       <c r="AV26" s="27"/>
     </row>
     <row r="27" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="43"/>
-      <c r="B27" s="44" t="s">
-        <v>90</v>
+      <c r="A27" s="42"/>
+      <c r="B27" s="43" t="s">
+        <v>89</v>
       </c>
       <c r="C27" s="39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D27" s="40"/>
       <c r="E27" s="40"/>
@@ -2759,12 +2786,12 @@
       <c r="AV27" s="27"/>
     </row>
     <row r="28" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="43"/>
-      <c r="B28" s="44" t="s">
-        <v>98</v>
+      <c r="A28" s="42"/>
+      <c r="B28" s="43" t="s">
+        <v>96</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" s="37"/>
       <c r="E28" s="37"/>
@@ -2865,13 +2892,13 @@
     <row r="30" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="27"/>
       <c r="B30" s="27"/>
-      <c r="C30" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="49"/>
+      <c r="C30" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="48"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
       <c r="J30" s="27"/>
@@ -2916,14 +2943,20 @@
     </row>
     <row r="31" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="34"/>
+      <c r="B31" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="34" t="s">
+        <v>99</v>
+      </c>
       <c r="D31" s="29"/>
       <c r="E31" s="29"/>
       <c r="F31" s="29"/>
       <c r="G31" s="35"/>
       <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
+      <c r="I31" s="27" t="s">
+        <v>108</v>
+      </c>
       <c r="J31" s="27"/>
       <c r="K31" s="27"/>
       <c r="L31" s="27"/>
@@ -2966,14 +2999,20 @@
     </row>
     <row r="32" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="39"/>
+      <c r="B32" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="39" t="s">
+        <v>100</v>
+      </c>
       <c r="D32" s="40"/>
       <c r="E32" s="40"/>
       <c r="F32" s="40"/>
       <c r="G32" s="41"/>
       <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
+      <c r="I32" s="27" t="s">
+        <v>109</v>
+      </c>
       <c r="J32" s="27"/>
       <c r="K32" s="27"/>
       <c r="L32" s="27"/>
@@ -3016,8 +3055,12 @@
     </row>
     <row r="33" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="27"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="34"/>
+      <c r="B33" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>102</v>
+      </c>
       <c r="D33" s="29"/>
       <c r="E33" s="29"/>
       <c r="F33" s="29"/>
@@ -3066,8 +3109,12 @@
     </row>
     <row r="34" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="27"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="39"/>
+      <c r="B34" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="39" t="s">
+        <v>103</v>
+      </c>
       <c r="D34" s="40"/>
       <c r="E34" s="40"/>
       <c r="F34" s="40"/>
@@ -3116,8 +3163,12 @@
     </row>
     <row r="35" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="27"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="36"/>
+      <c r="B35" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" s="36" t="s">
+        <v>104</v>
+      </c>
       <c r="D35" s="37"/>
       <c r="E35" s="37"/>
       <c r="F35" s="37"/>
@@ -3217,13 +3268,13 @@
     <row r="37" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="27"/>
       <c r="B37" s="27"/>
-      <c r="C37" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="49"/>
+      <c r="C37" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="48"/>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
       <c r="J37" s="27"/>
@@ -3268,8 +3319,12 @@
     </row>
     <row r="38" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="27"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="34"/>
+      <c r="B38" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" s="34" t="s">
+        <v>100</v>
+      </c>
       <c r="D38" s="29"/>
       <c r="E38" s="29"/>
       <c r="F38" s="29"/>
@@ -3318,8 +3373,12 @@
     </row>
     <row r="39" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="27"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="39"/>
+      <c r="B39" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" s="39" t="s">
+        <v>105</v>
+      </c>
       <c r="D39" s="40"/>
       <c r="E39" s="40"/>
       <c r="F39" s="40"/>
@@ -3516,7 +3575,7 @@
       <c r="AU42" s="27"/>
       <c r="AV42" s="27"/>
     </row>
-    <row r="43" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A43" s="27"/>
       <c r="B43" s="27"/>
       <c r="C43" s="27"/>
@@ -3566,16 +3625,14 @@
       <c r="AU43" s="27"/>
       <c r="AV43" s="27"/>
     </row>
-    <row r="44" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A44" s="27"/>
       <c r="B44" s="27"/>
-      <c r="C44" s="47" t="s">
-        <v>103</v>
-      </c>
-      <c r="D44" s="48"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="49"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
       <c r="J44" s="27"/>
@@ -3618,14 +3675,13 @@
       <c r="AU44" s="27"/>
       <c r="AV44" s="27"/>
     </row>
-    <row r="45" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="27"/>
+    <row r="45" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B45" s="27"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="35"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
       <c r="J45" s="27"/>
@@ -3668,14 +3724,13 @@
       <c r="AU45" s="27"/>
       <c r="AV45" s="27"/>
     </row>
-    <row r="46" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="27"/>
+    <row r="46" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B46" s="27"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="40"/>
-      <c r="F46" s="40"/>
-      <c r="G46" s="41"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
       <c r="J46" s="27"/>
@@ -3718,14 +3773,13 @@
       <c r="AU46" s="27"/>
       <c r="AV46" s="27"/>
     </row>
-    <row r="47" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="27"/>
+    <row r="47" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B47" s="27"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="35"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
       <c r="J47" s="27"/>
@@ -3768,14 +3822,13 @@
       <c r="AU47" s="27"/>
       <c r="AV47" s="27"/>
     </row>
-    <row r="48" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="27"/>
+    <row r="48" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B48" s="27"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="40"/>
-      <c r="G48" s="41"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
       <c r="J48" s="27"/>
@@ -3818,14 +3871,13 @@
       <c r="AU48" s="27"/>
       <c r="AV48" s="27"/>
     </row>
-    <row r="49" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="27"/>
+    <row r="49" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B49" s="27"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="38"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
       <c r="J49" s="27"/>
@@ -3868,8 +3920,7 @@
       <c r="AU49" s="27"/>
       <c r="AV49" s="27"/>
     </row>
-    <row r="50" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A50" s="27"/>
+    <row r="50" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B50" s="27"/>
       <c r="C50" s="27"/>
       <c r="D50" s="27"/>
@@ -3918,8 +3969,7 @@
       <c r="AU50" s="27"/>
       <c r="AV50" s="27"/>
     </row>
-    <row r="51" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A51" s="27"/>
+    <row r="51" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B51" s="27"/>
       <c r="C51" s="27"/>
       <c r="D51" s="27"/>
@@ -3968,7 +4018,7 @@
       <c r="AU51" s="27"/>
       <c r="AV51" s="27"/>
     </row>
-    <row r="52" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B52" s="27"/>
       <c r="C52" s="27"/>
       <c r="D52" s="27"/>
@@ -4017,7 +4067,7 @@
       <c r="AU52" s="27"/>
       <c r="AV52" s="27"/>
     </row>
-    <row r="53" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B53" s="27"/>
       <c r="C53" s="27"/>
       <c r="D53" s="27"/>
@@ -4066,7 +4116,7 @@
       <c r="AU53" s="27"/>
       <c r="AV53" s="27"/>
     </row>
-    <row r="54" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B54" s="27"/>
       <c r="C54" s="27"/>
       <c r="D54" s="27"/>
@@ -4115,7 +4165,7 @@
       <c r="AU54" s="27"/>
       <c r="AV54" s="27"/>
     </row>
-    <row r="55" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B55" s="27"/>
       <c r="C55" s="27"/>
       <c r="D55" s="27"/>
@@ -4164,7 +4214,7 @@
       <c r="AU55" s="27"/>
       <c r="AV55" s="27"/>
     </row>
-    <row r="56" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B56" s="27"/>
       <c r="C56" s="27"/>
       <c r="D56" s="27"/>
@@ -4213,7 +4263,7 @@
       <c r="AU56" s="27"/>
       <c r="AV56" s="27"/>
     </row>
-    <row r="57" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B57" s="27"/>
       <c r="C57" s="27"/>
       <c r="D57" s="27"/>
@@ -4262,35 +4312,7 @@
       <c r="AU57" s="27"/>
       <c r="AV57" s="27"/>
     </row>
-    <row r="58" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="B58" s="27"/>
-      <c r="C58" s="27"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="27"/>
-      <c r="I58" s="27"/>
-      <c r="J58" s="27"/>
-      <c r="K58" s="27"/>
-      <c r="L58" s="27"/>
-      <c r="M58" s="27"/>
-      <c r="N58" s="27"/>
-      <c r="O58" s="27"/>
-      <c r="P58" s="27"/>
-      <c r="Q58" s="27"/>
-      <c r="R58" s="27"/>
-      <c r="S58" s="27"/>
-      <c r="T58" s="27"/>
-      <c r="U58" s="27"/>
-      <c r="V58" s="27"/>
-      <c r="W58" s="27"/>
-      <c r="X58" s="27"/>
-      <c r="Y58" s="27"/>
-      <c r="Z58" s="27"/>
-      <c r="AA58" s="27"/>
-      <c r="AB58" s="27"/>
-      <c r="AC58" s="27"/>
+    <row r="58" spans="2:48" x14ac:dyDescent="0.25">
       <c r="AD58" s="27"/>
       <c r="AE58" s="27"/>
       <c r="AF58" s="27"/>
@@ -4311,35 +4333,7 @@
       <c r="AU58" s="27"/>
       <c r="AV58" s="27"/>
     </row>
-    <row r="59" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="B59" s="27"/>
-      <c r="C59" s="27"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="27"/>
-      <c r="G59" s="27"/>
-      <c r="H59" s="27"/>
-      <c r="I59" s="27"/>
-      <c r="J59" s="27"/>
-      <c r="K59" s="27"/>
-      <c r="L59" s="27"/>
-      <c r="M59" s="27"/>
-      <c r="N59" s="27"/>
-      <c r="O59" s="27"/>
-      <c r="P59" s="27"/>
-      <c r="Q59" s="27"/>
-      <c r="R59" s="27"/>
-      <c r="S59" s="27"/>
-      <c r="T59" s="27"/>
-      <c r="U59" s="27"/>
-      <c r="V59" s="27"/>
-      <c r="W59" s="27"/>
-      <c r="X59" s="27"/>
-      <c r="Y59" s="27"/>
-      <c r="Z59" s="27"/>
-      <c r="AA59" s="27"/>
-      <c r="AB59" s="27"/>
-      <c r="AC59" s="27"/>
+    <row r="59" spans="2:48" x14ac:dyDescent="0.25">
       <c r="AD59" s="27"/>
       <c r="AE59" s="27"/>
       <c r="AF59" s="27"/>
@@ -4360,35 +4354,7 @@
       <c r="AU59" s="27"/>
       <c r="AV59" s="27"/>
     </row>
-    <row r="60" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="B60" s="27"/>
-      <c r="C60" s="27"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="27"/>
-      <c r="H60" s="27"/>
-      <c r="I60" s="27"/>
-      <c r="J60" s="27"/>
-      <c r="K60" s="27"/>
-      <c r="L60" s="27"/>
-      <c r="M60" s="27"/>
-      <c r="N60" s="27"/>
-      <c r="O60" s="27"/>
-      <c r="P60" s="27"/>
-      <c r="Q60" s="27"/>
-      <c r="R60" s="27"/>
-      <c r="S60" s="27"/>
-      <c r="T60" s="27"/>
-      <c r="U60" s="27"/>
-      <c r="V60" s="27"/>
-      <c r="W60" s="27"/>
-      <c r="X60" s="27"/>
-      <c r="Y60" s="27"/>
-      <c r="Z60" s="27"/>
-      <c r="AA60" s="27"/>
-      <c r="AB60" s="27"/>
-      <c r="AC60" s="27"/>
+    <row r="60" spans="2:48" x14ac:dyDescent="0.25">
       <c r="AD60" s="27"/>
       <c r="AE60" s="27"/>
       <c r="AF60" s="27"/>
@@ -4409,35 +4375,7 @@
       <c r="AU60" s="27"/>
       <c r="AV60" s="27"/>
     </row>
-    <row r="61" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="B61" s="27"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="27"/>
-      <c r="H61" s="27"/>
-      <c r="I61" s="27"/>
-      <c r="J61" s="27"/>
-      <c r="K61" s="27"/>
-      <c r="L61" s="27"/>
-      <c r="M61" s="27"/>
-      <c r="N61" s="27"/>
-      <c r="O61" s="27"/>
-      <c r="P61" s="27"/>
-      <c r="Q61" s="27"/>
-      <c r="R61" s="27"/>
-      <c r="S61" s="27"/>
-      <c r="T61" s="27"/>
-      <c r="U61" s="27"/>
-      <c r="V61" s="27"/>
-      <c r="W61" s="27"/>
-      <c r="X61" s="27"/>
-      <c r="Y61" s="27"/>
-      <c r="Z61" s="27"/>
-      <c r="AA61" s="27"/>
-      <c r="AB61" s="27"/>
-      <c r="AC61" s="27"/>
+    <row r="61" spans="2:48" x14ac:dyDescent="0.25">
       <c r="AD61" s="27"/>
       <c r="AE61" s="27"/>
       <c r="AF61" s="27"/>
@@ -4458,35 +4396,7 @@
       <c r="AU61" s="27"/>
       <c r="AV61" s="27"/>
     </row>
-    <row r="62" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="B62" s="27"/>
-      <c r="C62" s="27"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="27"/>
-      <c r="G62" s="27"/>
-      <c r="H62" s="27"/>
-      <c r="I62" s="27"/>
-      <c r="J62" s="27"/>
-      <c r="K62" s="27"/>
-      <c r="L62" s="27"/>
-      <c r="M62" s="27"/>
-      <c r="N62" s="27"/>
-      <c r="O62" s="27"/>
-      <c r="P62" s="27"/>
-      <c r="Q62" s="27"/>
-      <c r="R62" s="27"/>
-      <c r="S62" s="27"/>
-      <c r="T62" s="27"/>
-      <c r="U62" s="27"/>
-      <c r="V62" s="27"/>
-      <c r="W62" s="27"/>
-      <c r="X62" s="27"/>
-      <c r="Y62" s="27"/>
-      <c r="Z62" s="27"/>
-      <c r="AA62" s="27"/>
-      <c r="AB62" s="27"/>
-      <c r="AC62" s="27"/>
+    <row r="62" spans="2:48" x14ac:dyDescent="0.25">
       <c r="AD62" s="27"/>
       <c r="AE62" s="27"/>
       <c r="AF62" s="27"/>
@@ -4507,35 +4417,7 @@
       <c r="AU62" s="27"/>
       <c r="AV62" s="27"/>
     </row>
-    <row r="63" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="B63" s="27"/>
-      <c r="C63" s="27"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="27"/>
-      <c r="I63" s="27"/>
-      <c r="J63" s="27"/>
-      <c r="K63" s="27"/>
-      <c r="L63" s="27"/>
-      <c r="M63" s="27"/>
-      <c r="N63" s="27"/>
-      <c r="O63" s="27"/>
-      <c r="P63" s="27"/>
-      <c r="Q63" s="27"/>
-      <c r="R63" s="27"/>
-      <c r="S63" s="27"/>
-      <c r="T63" s="27"/>
-      <c r="U63" s="27"/>
-      <c r="V63" s="27"/>
-      <c r="W63" s="27"/>
-      <c r="X63" s="27"/>
-      <c r="Y63" s="27"/>
-      <c r="Z63" s="27"/>
-      <c r="AA63" s="27"/>
-      <c r="AB63" s="27"/>
-      <c r="AC63" s="27"/>
+    <row r="63" spans="2:48" x14ac:dyDescent="0.25">
       <c r="AD63" s="27"/>
       <c r="AE63" s="27"/>
       <c r="AF63" s="27"/>
@@ -4556,35 +4438,7 @@
       <c r="AU63" s="27"/>
       <c r="AV63" s="27"/>
     </row>
-    <row r="64" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="B64" s="27"/>
-      <c r="C64" s="27"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="27"/>
-      <c r="H64" s="27"/>
-      <c r="I64" s="27"/>
-      <c r="J64" s="27"/>
-      <c r="K64" s="27"/>
-      <c r="L64" s="27"/>
-      <c r="M64" s="27"/>
-      <c r="N64" s="27"/>
-      <c r="O64" s="27"/>
-      <c r="P64" s="27"/>
-      <c r="Q64" s="27"/>
-      <c r="R64" s="27"/>
-      <c r="S64" s="27"/>
-      <c r="T64" s="27"/>
-      <c r="U64" s="27"/>
-      <c r="V64" s="27"/>
-      <c r="W64" s="27"/>
-      <c r="X64" s="27"/>
-      <c r="Y64" s="27"/>
-      <c r="Z64" s="27"/>
-      <c r="AA64" s="27"/>
-      <c r="AB64" s="27"/>
-      <c r="AC64" s="27"/>
+    <row r="64" spans="2:48" x14ac:dyDescent="0.25">
       <c r="AD64" s="27"/>
       <c r="AE64" s="27"/>
       <c r="AF64" s="27"/>
@@ -5445,155 +5299,9 @@
       <c r="AU104" s="27"/>
       <c r="AV104" s="27"/>
     </row>
-    <row r="105" spans="30:48" x14ac:dyDescent="0.25">
-      <c r="AD105" s="27"/>
-      <c r="AE105" s="27"/>
-      <c r="AF105" s="27"/>
-      <c r="AG105" s="27"/>
-      <c r="AH105" s="27"/>
-      <c r="AI105" s="27"/>
-      <c r="AJ105" s="27"/>
-      <c r="AK105" s="27"/>
-      <c r="AL105" s="27"/>
-      <c r="AM105" s="27"/>
-      <c r="AN105" s="27"/>
-      <c r="AO105" s="27"/>
-      <c r="AP105" s="27"/>
-      <c r="AQ105" s="27"/>
-      <c r="AR105" s="27"/>
-      <c r="AS105" s="27"/>
-      <c r="AT105" s="27"/>
-      <c r="AU105" s="27"/>
-      <c r="AV105" s="27"/>
-    </row>
-    <row r="106" spans="30:48" x14ac:dyDescent="0.25">
-      <c r="AD106" s="27"/>
-      <c r="AE106" s="27"/>
-      <c r="AF106" s="27"/>
-      <c r="AG106" s="27"/>
-      <c r="AH106" s="27"/>
-      <c r="AI106" s="27"/>
-      <c r="AJ106" s="27"/>
-      <c r="AK106" s="27"/>
-      <c r="AL106" s="27"/>
-      <c r="AM106" s="27"/>
-      <c r="AN106" s="27"/>
-      <c r="AO106" s="27"/>
-      <c r="AP106" s="27"/>
-      <c r="AQ106" s="27"/>
-      <c r="AR106" s="27"/>
-      <c r="AS106" s="27"/>
-      <c r="AT106" s="27"/>
-      <c r="AU106" s="27"/>
-      <c r="AV106" s="27"/>
-    </row>
-    <row r="107" spans="30:48" x14ac:dyDescent="0.25">
-      <c r="AD107" s="27"/>
-      <c r="AE107" s="27"/>
-      <c r="AF107" s="27"/>
-      <c r="AG107" s="27"/>
-      <c r="AH107" s="27"/>
-      <c r="AI107" s="27"/>
-      <c r="AJ107" s="27"/>
-      <c r="AK107" s="27"/>
-      <c r="AL107" s="27"/>
-      <c r="AM107" s="27"/>
-      <c r="AN107" s="27"/>
-      <c r="AO107" s="27"/>
-      <c r="AP107" s="27"/>
-      <c r="AQ107" s="27"/>
-      <c r="AR107" s="27"/>
-      <c r="AS107" s="27"/>
-      <c r="AT107" s="27"/>
-      <c r="AU107" s="27"/>
-      <c r="AV107" s="27"/>
-    </row>
-    <row r="108" spans="30:48" x14ac:dyDescent="0.25">
-      <c r="AD108" s="27"/>
-      <c r="AE108" s="27"/>
-      <c r="AF108" s="27"/>
-      <c r="AG108" s="27"/>
-      <c r="AH108" s="27"/>
-      <c r="AI108" s="27"/>
-      <c r="AJ108" s="27"/>
-      <c r="AK108" s="27"/>
-      <c r="AL108" s="27"/>
-      <c r="AM108" s="27"/>
-      <c r="AN108" s="27"/>
-      <c r="AO108" s="27"/>
-      <c r="AP108" s="27"/>
-      <c r="AQ108" s="27"/>
-      <c r="AR108" s="27"/>
-      <c r="AS108" s="27"/>
-      <c r="AT108" s="27"/>
-      <c r="AU108" s="27"/>
-      <c r="AV108" s="27"/>
-    </row>
-    <row r="109" spans="30:48" x14ac:dyDescent="0.25">
-      <c r="AD109" s="27"/>
-      <c r="AE109" s="27"/>
-      <c r="AF109" s="27"/>
-      <c r="AG109" s="27"/>
-      <c r="AH109" s="27"/>
-      <c r="AI109" s="27"/>
-      <c r="AJ109" s="27"/>
-      <c r="AK109" s="27"/>
-      <c r="AL109" s="27"/>
-      <c r="AM109" s="27"/>
-      <c r="AN109" s="27"/>
-      <c r="AO109" s="27"/>
-      <c r="AP109" s="27"/>
-      <c r="AQ109" s="27"/>
-      <c r="AR109" s="27"/>
-      <c r="AS109" s="27"/>
-      <c r="AT109" s="27"/>
-      <c r="AU109" s="27"/>
-      <c r="AV109" s="27"/>
-    </row>
-    <row r="110" spans="30:48" x14ac:dyDescent="0.25">
-      <c r="AD110" s="27"/>
-      <c r="AE110" s="27"/>
-      <c r="AF110" s="27"/>
-      <c r="AG110" s="27"/>
-      <c r="AH110" s="27"/>
-      <c r="AI110" s="27"/>
-      <c r="AJ110" s="27"/>
-      <c r="AK110" s="27"/>
-      <c r="AL110" s="27"/>
-      <c r="AM110" s="27"/>
-      <c r="AN110" s="27"/>
-      <c r="AO110" s="27"/>
-      <c r="AP110" s="27"/>
-      <c r="AQ110" s="27"/>
-      <c r="AR110" s="27"/>
-      <c r="AS110" s="27"/>
-      <c r="AT110" s="27"/>
-      <c r="AU110" s="27"/>
-      <c r="AV110" s="27"/>
-    </row>
-    <row r="111" spans="30:48" x14ac:dyDescent="0.25">
-      <c r="AD111" s="27"/>
-      <c r="AE111" s="27"/>
-      <c r="AF111" s="27"/>
-      <c r="AG111" s="27"/>
-      <c r="AH111" s="27"/>
-      <c r="AI111" s="27"/>
-      <c r="AJ111" s="27"/>
-      <c r="AK111" s="27"/>
-      <c r="AL111" s="27"/>
-      <c r="AM111" s="27"/>
-      <c r="AN111" s="27"/>
-      <c r="AO111" s="27"/>
-      <c r="AP111" s="27"/>
-      <c r="AQ111" s="27"/>
-      <c r="AR111" s="27"/>
-      <c r="AS111" s="27"/>
-      <c r="AT111" s="27"/>
-      <c r="AU111" s="27"/>
-      <c r="AV111" s="27"/>
-    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="C12:E17"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="AE2:AJ2"/>
     <mergeCell ref="B2:M2"/>
